--- a/CRUD API/EFAPI/EFAPI/wwwroot/Employee data.xlsx
+++ b/CRUD API/EFAPI/EFAPI/wwwroot/Employee data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -26,34 +26,28 @@
     <t xml:space="preserve">Department</t>
   </si>
   <si>
-    <t xml:space="preserve">Mohammad</t>
+    <t xml:space="preserve">jehad hammad</t>
   </si>
   <si>
-    <t xml:space="preserve">algohwti23@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shipping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jehad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jehad@gmail.com</t>
+    <t xml:space="preserve">j.hammad@ai-elements.com</t>
   </si>
   <si>
     <t xml:space="preserve">IT</t>
   </si>
   <si>
-    <t xml:space="preserve">khaled</t>
+    <t xml:space="preserve">Taha Abu Farweh</t>
   </si>
   <si>
-    <t xml:space="preserve">khaled@gmail.com</t>
+    <t xml:space="preserve">t.abufarweh@ai-elements.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Marketing</t>
+    <t xml:space="preserve">HR</t>
   </si>
   <si>
-    <t xml:space="preserve">ihf@hawk.com</t>
+    <t xml:space="preserve">omar al-ghouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">algohti23@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -154,7 +148,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>3255</v>
+        <v>500</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -168,7 +162,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>20030</v>
+        <v>500</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -182,24 +176,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>963</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
